--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oluwanifemibamgbose/Desktop/excelapi/excel-microapi/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64CF6B9B-B800-B34F-A085-5C0F3617D2D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{CA34E88C-4425-FE43-B9CA-2BD806C442B7}"/>
+    <workbookView xWindow="2775" yWindow="1560" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,7 +126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -184,7 +178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,23 +372,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7C527-F105-7D48-9DC7-5EAA5B013942}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>36892</v>
       </c>
@@ -416,7 +410,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>36923</v>
       </c>
@@ -427,7 +421,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>36951</v>
       </c>
@@ -438,7 +432,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>36982</v>
       </c>
@@ -449,7 +443,28 @@
         <v>455</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+    </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>36892</formula1>
+      <formula2>36982</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Input the date according to the month sequence" promptTitle="Date" sqref="A2:A13">
+      <formula1>36892</formula1>
+      <formula2>37226</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Input 73 as appropriate " sqref="B1 B2:B13">
+      <formula1>73</formula1>
+      <formula2>73</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Input 455 as appropriate " sqref="C1 C2:C13">
+      <formula1>455</formula1>
+      <formula2>455</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>